--- a/scenario/項目定義.xlsx
+++ b/scenario/項目定義.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>名称</t>
     <rPh sb="0" eb="2">
@@ -108,12 +108,26 @@
     <t>detail:[*]:userName</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ディクショナリ名</t>
+    <rPh sb="7" eb="8">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,8 +174,15 @@
       <name val="ＭＳ ゴシック"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000090"/>
+      <name val="ＭＳ ゴシック"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,8 +195,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -222,8 +249,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -257,8 +310,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -269,13 +328,22 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="39">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -287,6 +355,9 @@
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -309,6 +380,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="31" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="38" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -637,457 +711,477 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="4" width="47.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="28" style="7" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="52.1640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="12.83203125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4">
+    <row r="4" spans="1:4">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="4">
+      <c r="B11" s="6"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="4">
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4">
+      <c r="B13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4">
+      <c r="B14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4">
+      <c r="B15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4">
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4">
+      <c r="B17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="4">
+      <c r="B18" s="6"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4">
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4">
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="4">
+      <c r="B21" s="6"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4">
+      <c r="B22" s="6"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="4">
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4">
+      <c r="B24" s="6"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="4">
+      <c r="B25" s="6"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4">
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4">
+      <c r="B27" s="6"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="4">
+      <c r="B28" s="6"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="4">
+      <c r="B29" s="6"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4">
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="4">
+      <c r="B31" s="6"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4">
+      <c r="B32" s="6"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4">
+      <c r="B33" s="6"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4">
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="4">
+      <c r="B35" s="6"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4">
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="4">
+      <c r="B37" s="6"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="4">
+      <c r="B38" s="6"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="4">
+      <c r="B39" s="6"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="4">
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4">
+      <c r="B41" s="6"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="4">
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="4">
+      <c r="B43" s="6"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="4">
+      <c r="B44" s="6"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="4">
+      <c r="B45" s="6"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="4">
+      <c r="B46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="4">
+      <c r="B47" s="6"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="4">
+      <c r="B48" s="6"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="4">
+      <c r="B49" s="6"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="4">
+      <c r="B50" s="6"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="4">
+      <c r="B51" s="6"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="4">
+      <c r="B52" s="6"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="4"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
